--- a/Code/Results/Cases/Case_1_217/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_217/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.359070255018935</v>
+        <v>1.726598034398364</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06125527617382431</v>
+        <v>0.0202251898184258</v>
       </c>
       <c r="E2">
-        <v>2.913684133069154</v>
+        <v>1.323723653710346</v>
       </c>
       <c r="F2">
-        <v>0.2807483843661842</v>
+        <v>0.2722498823717743</v>
       </c>
       <c r="G2">
-        <v>0.1937553183361445</v>
+        <v>0.1412063102096681</v>
       </c>
       <c r="H2">
-        <v>0.1183584915444769</v>
+        <v>0.2988846374982899</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.432691717762765</v>
+        <v>0.8459651622079605</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6121002980337096</v>
+        <v>0.7769765906976716</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.931520216774004</v>
+        <v>1.592131924085265</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05339598660376765</v>
+        <v>0.01764334772118303</v>
       </c>
       <c r="E3">
-        <v>2.572011055341648</v>
+        <v>1.217921524984206</v>
       </c>
       <c r="F3">
-        <v>0.2467116455581433</v>
+        <v>0.270144820187241</v>
       </c>
       <c r="G3">
-        <v>0.1663103309815455</v>
+        <v>0.1396760083086903</v>
       </c>
       <c r="H3">
-        <v>0.1127814476558697</v>
+        <v>0.3029791293159576</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.113287422162642</v>
+        <v>0.7414064603125325</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5418137637155951</v>
+        <v>0.7819990035903857</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.670512062249827</v>
+        <v>1.509456002926925</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04856303721435751</v>
+        <v>0.01605168090171105</v>
       </c>
       <c r="E4">
-        <v>2.363667927071049</v>
+        <v>1.153363124299545</v>
       </c>
       <c r="F4">
-        <v>0.2269413571665453</v>
+        <v>0.2692320846979968</v>
       </c>
       <c r="G4">
-        <v>0.150530467479939</v>
+        <v>0.139029638160892</v>
       </c>
       <c r="H4">
-        <v>0.1100113202139141</v>
+        <v>0.3057860215178323</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.917946833590463</v>
+        <v>0.6769404639647689</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5022884710394067</v>
+        <v>0.786307230825912</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.564450589799947</v>
+        <v>1.47573751472811</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04659137823530557</v>
+        <v>0.01540151803177991</v>
       </c>
       <c r="E5">
-        <v>2.27908631885515</v>
+        <v>1.127160117646127</v>
       </c>
       <c r="F5">
-        <v>0.2191442719064867</v>
+        <v>0.2689550014387336</v>
       </c>
       <c r="G5">
-        <v>0.1443444983428535</v>
+        <v>0.1388392021241813</v>
       </c>
       <c r="H5">
-        <v>0.1090356871465872</v>
+        <v>0.3070032221731722</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.838487118396984</v>
+        <v>0.6506042941818464</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4870180155485002</v>
+        <v>0.7883685505049982</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.546855206786063</v>
+        <v>1.470136965125334</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04626384379849213</v>
+        <v>0.01529346755139471</v>
       </c>
       <c r="E6">
-        <v>2.265059741008699</v>
+        <v>1.12281557416361</v>
       </c>
       <c r="F6">
-        <v>0.21786455901929</v>
+        <v>0.2689147028416272</v>
       </c>
       <c r="G6">
-        <v>0.143331384181387</v>
+        <v>0.1388119645618389</v>
       </c>
       <c r="H6">
-        <v>0.1088826200967148</v>
+        <v>0.3072097607365833</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.825300112625484</v>
+        <v>0.6462272605396606</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4845307293833514</v>
+        <v>0.7887292284226248</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.669080558185954</v>
+        <v>1.509001372989871</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04853645604735135</v>
+        <v>0.01604291874945574</v>
       </c>
       <c r="E7">
-        <v>2.36252598894842</v>
+        <v>1.153009311487295</v>
       </c>
       <c r="F7">
-        <v>0.2268351834681113</v>
+        <v>0.2692279646014129</v>
       </c>
       <c r="G7">
-        <v>0.1504460835198884</v>
+        <v>0.1390267754679897</v>
       </c>
       <c r="H7">
-        <v>0.1099975565648776</v>
+        <v>0.3058021404057527</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.916874697555841</v>
+        <v>0.6765855496630024</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5020792397352096</v>
+        <v>0.7863337957557235</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.211288687258332</v>
+        <v>1.680258198473325</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05854668248651507</v>
+        <v>0.01933633800719292</v>
       </c>
       <c r="E8">
-        <v>2.795547474814811</v>
+        <v>1.287161058469138</v>
       </c>
       <c r="F8">
-        <v>0.2687632604826575</v>
+        <v>0.2714448508545217</v>
       </c>
       <c r="G8">
-        <v>0.1840544073337398</v>
+        <v>0.1406173353320668</v>
       </c>
       <c r="H8">
-        <v>0.1162927467776953</v>
+        <v>0.3002354725605656</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.322367662589158</v>
+        <v>0.8099693508221435</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5870643813843657</v>
+        <v>0.7784528548934304</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.29043743687231</v>
+        <v>2.01516667354332</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07813788743655437</v>
+        <v>0.02574138222941258</v>
       </c>
       <c r="E9">
-        <v>3.658425804287788</v>
+        <v>1.553313630393262</v>
       </c>
       <c r="F9">
-        <v>0.3611090719173262</v>
+        <v>0.2788346860656574</v>
       </c>
       <c r="G9">
-        <v>0.2596680212448987</v>
+        <v>0.1460981166286714</v>
       </c>
       <c r="H9">
-        <v>0.134372884655761</v>
+        <v>0.2916551389581628</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.126296844663614</v>
+        <v>1.069379513823549</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7862278329507149</v>
+        <v>0.7728137080831772</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.099020904566146</v>
+        <v>2.260652077066879</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09253965079922466</v>
+        <v>0.030411759826805</v>
       </c>
       <c r="E10">
-        <v>4.304346706607873</v>
+        <v>1.750588907990704</v>
       </c>
       <c r="F10">
-        <v>0.4368843434679022</v>
+        <v>0.2861598270207537</v>
       </c>
       <c r="G10">
-        <v>0.3229498548505916</v>
+        <v>0.1516131263038289</v>
       </c>
       <c r="H10">
-        <v>0.1519693027296114</v>
+        <v>0.2867919412197324</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.726360837713003</v>
+        <v>1.258623019224615</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9579200372373293</v>
+        <v>0.7747926956490687</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.471800534991814</v>
+        <v>2.372206965000771</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09910138682761271</v>
+        <v>0.0325281777344486</v>
       </c>
       <c r="E11">
-        <v>4.60171568316116</v>
+        <v>1.840683230460826</v>
       </c>
       <c r="F11">
-        <v>0.473506052905357</v>
+        <v>0.2899126815779027</v>
       </c>
       <c r="G11">
-        <v>0.3538589000331456</v>
+        <v>0.1544555883509418</v>
       </c>
       <c r="H11">
-        <v>0.1611103821382187</v>
+        <v>0.2848959747797153</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.0024206099107</v>
+        <v>1.34441850880421</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.042891227298725</v>
+        <v>0.7770519127064972</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.613815018936691</v>
+        <v>2.414432624694882</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1015883781895184</v>
+        <v>0.03332838044360642</v>
       </c>
       <c r="E12">
-        <v>4.714916663264347</v>
+        <v>1.874847721823613</v>
       </c>
       <c r="F12">
-        <v>0.4877223141981801</v>
+        <v>0.2913949588415861</v>
       </c>
       <c r="G12">
-        <v>0.3659091737196718</v>
+        <v>0.1555807584664421</v>
       </c>
       <c r="H12">
-        <v>0.1647536629473905</v>
+        <v>0.2842238000705777</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.107497034550192</v>
+        <v>1.376864304998662</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.076179968449253</v>
+        <v>0.7781052005724973</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.583189442548701</v>
+        <v>2.405339375601386</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1010526496159798</v>
+        <v>0.03315609860072755</v>
       </c>
       <c r="E13">
-        <v>4.690508932417828</v>
+        <v>1.867487711478162</v>
       </c>
       <c r="F13">
-        <v>0.4846444315416889</v>
+        <v>0.2910729935108023</v>
       </c>
       <c r="G13">
-        <v>0.3632978703583802</v>
+        <v>0.155336250044499</v>
       </c>
       <c r="H13">
-        <v>0.1639606233026569</v>
+        <v>0.2843665237962796</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.084841375910855</v>
+        <v>1.369878455006756</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.068959079807826</v>
+        <v>0.7778695228732886</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.483466249657852</v>
+        <v>2.37568125582078</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09930594447398278</v>
+        <v>0.03259403609168032</v>
       </c>
       <c r="E14">
-        <v>4.611016371262224</v>
+        <v>1.843493024078839</v>
       </c>
       <c r="F14">
-        <v>0.4746684139659791</v>
+        <v>0.2900334000089728</v>
       </c>
       <c r="G14">
-        <v>0.354843109288197</v>
+        <v>0.1545471742813049</v>
       </c>
       <c r="H14">
-        <v>0.1614063632904816</v>
+        <v>0.2848397552200908</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.011053938057159</v>
+        <v>1.347088713469645</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.045606871802192</v>
+        <v>0.7771345902530982</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.422498105452007</v>
+        <v>2.357512465206696</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09823634714770435</v>
+        <v>0.03224959332129629</v>
       </c>
       <c r="E15">
-        <v>4.562404913170752</v>
+        <v>1.828801713117457</v>
       </c>
       <c r="F15">
-        <v>0.4686044095026318</v>
+        <v>0.2894046026574415</v>
       </c>
       <c r="G15">
-        <v>0.3497106114037649</v>
+        <v>0.1540702207183386</v>
       </c>
       <c r="H15">
-        <v>0.1598660482749068</v>
+        <v>0.2851355947621528</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.965930123491887</v>
+        <v>1.333123696404698</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.031451675572185</v>
+        <v>0.7767102481628285</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.074770057820615</v>
+        <v>2.253359262129834</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09211109306527732</v>
+        <v>0.03027327712379702</v>
       </c>
       <c r="E16">
-        <v>4.284991172415943</v>
+        <v>1.744707872237456</v>
       </c>
       <c r="F16">
-        <v>0.4345375767288715</v>
+        <v>0.2859230902228234</v>
       </c>
       <c r="G16">
-        <v>0.3209759566219645</v>
+        <v>0.1514341482392894</v>
       </c>
       <c r="H16">
-        <v>0.1513963084143484</v>
+        <v>0.2869222379959808</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.70838966802819</v>
+        <v>1.253010107943624</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9525155426193237</v>
+        <v>0.7746725978036295</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.862812626988955</v>
+        <v>2.189433893614364</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08835657427006538</v>
+        <v>0.02905873428153427</v>
       </c>
       <c r="E17">
-        <v>4.115770201909612</v>
+        <v>1.693207216298845</v>
       </c>
       <c r="F17">
-        <v>0.4142163626419304</v>
+        <v>0.2838955011577724</v>
       </c>
       <c r="G17">
-        <v>0.3039193437275571</v>
+        <v>0.149903039468299</v>
       </c>
       <c r="H17">
-        <v>0.1465039819052834</v>
+        <v>0.2880995179237118</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.551251901204012</v>
+        <v>1.203787370835698</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9059347424060604</v>
+        <v>0.7737723070120808</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.741357183075877</v>
+        <v>2.152654683756225</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08619799576459997</v>
+        <v>0.0283593971258469</v>
       </c>
       <c r="E18">
-        <v>4.018765963757971</v>
+        <v>1.663618782542244</v>
       </c>
       <c r="F18">
-        <v>0.4027280776474953</v>
+        <v>0.2827688357016882</v>
       </c>
       <c r="G18">
-        <v>0.2943059084507667</v>
+        <v>0.1490537432091514</v>
       </c>
       <c r="H18">
-        <v>0.1437958137922521</v>
+        <v>0.2888064145461371</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.461154796794347</v>
+        <v>1.175448297937635</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8797810107870987</v>
+        <v>0.7733822557772498</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.700308921415626</v>
+        <v>2.140200007750707</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08546727578076485</v>
+        <v>0.02812248433044573</v>
       </c>
       <c r="E19">
-        <v>3.985975749642449</v>
+        <v>1.653606473825079</v>
       </c>
       <c r="F19">
-        <v>0.3988715471642763</v>
+        <v>0.2823941384583577</v>
       </c>
       <c r="G19">
-        <v>0.2910836361481586</v>
+        <v>0.148771546885925</v>
       </c>
       <c r="H19">
-        <v>0.142896508614669</v>
+        <v>0.2890508591402252</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.430695590255937</v>
+        <v>1.165848492375744</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8710318287561165</v>
+        <v>0.7732720642529216</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.885327612718697</v>
+        <v>2.196240005925574</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08875614887884353</v>
+        <v>0.02918810401342853</v>
       </c>
       <c r="E20">
-        <v>4.133749613653237</v>
+        <v>1.698686116289196</v>
       </c>
       <c r="F20">
-        <v>0.4163586255796474</v>
+        <v>0.2841072433226302</v>
       </c>
       <c r="G20">
-        <v>0.3057143704183432</v>
+        <v>0.150062777385088</v>
       </c>
       <c r="H20">
-        <v>0.1470137042218767</v>
+        <v>0.2879711126216478</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.567949399333997</v>
+        <v>1.209030064744184</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9108264198543452</v>
+        <v>0.7738549034730795</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.512733094016937</v>
+        <v>2.384393052712539</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0998189280951749</v>
+        <v>0.03275916161288706</v>
       </c>
       <c r="E21">
-        <v>4.634348418625223</v>
+        <v>1.850539573583688</v>
       </c>
       <c r="F21">
-        <v>0.4775888270938395</v>
+        <v>0.2903370888384416</v>
       </c>
       <c r="G21">
-        <v>0.3573167534972157</v>
+        <v>0.1547776143205368</v>
       </c>
       <c r="H21">
-        <v>0.1621515239773714</v>
+        <v>0.2846995106648365</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.032711675123949</v>
+        <v>1.353783790643661</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.052434752606132</v>
+        <v>0.7773450716101706</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.92781409700757</v>
+        <v>2.507258115939976</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1070623420933003</v>
+        <v>0.0350858037243853</v>
       </c>
       <c r="E22">
-        <v>4.965026742649513</v>
+        <v>1.950061449549366</v>
       </c>
       <c r="F22">
-        <v>0.5196579129717165</v>
+        <v>0.2947654056958413</v>
       </c>
       <c r="G22">
-        <v>0.3930784722384431</v>
+        <v>0.1581438010361182</v>
       </c>
       <c r="H22">
-        <v>0.1731141392649675</v>
+        <v>0.2828283471916109</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.33965149163663</v>
+        <v>1.448137090570924</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.151531916371226</v>
+        <v>0.7807799466666268</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.70576698609932</v>
+        <v>2.441692477908077</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1031949214811902</v>
+        <v>0.03384471581816229</v>
       </c>
       <c r="E23">
-        <v>4.788185682203277</v>
+        <v>1.896920385940149</v>
       </c>
       <c r="F23">
-        <v>0.4970032636279242</v>
+        <v>0.2923690665662591</v>
       </c>
       <c r="G23">
-        <v>0.3737910070842076</v>
+        <v>0.1563208801003952</v>
       </c>
       <c r="H23">
-        <v>0.1671588383119484</v>
+        <v>0.2838024916842983</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.175505971699465</v>
+        <v>1.39780231510349</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.097998541063589</v>
+        <v>0.7788403368479635</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.875147346768017</v>
+        <v>2.193163048640258</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08857550142491988</v>
+        <v>0.02912961931808411</v>
       </c>
       <c r="E24">
-        <v>4.125620245971106</v>
+        <v>1.696209043136577</v>
       </c>
       <c r="F24">
-        <v>0.4153895051199541</v>
+        <v>0.2840113931879245</v>
       </c>
       <c r="G24">
-        <v>0.3049022418459515</v>
+        <v>0.1499904635016662</v>
       </c>
       <c r="H24">
-        <v>0.1467829346477885</v>
+        <v>0.2880290710348987</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.560399709029639</v>
+        <v>1.206659968201393</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9086129513015919</v>
+        <v>0.773817164515151</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.99620976975973</v>
+        <v>1.924665212247646</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07283904861583324</v>
+        <v>0.02401466106498162</v>
       </c>
       <c r="E25">
-        <v>3.423178521007884</v>
+        <v>1.480997856433788</v>
       </c>
       <c r="F25">
-        <v>0.3348701213743084</v>
+        <v>0.276505561267669</v>
       </c>
       <c r="G25">
-        <v>0.2379951243111051</v>
+        <v>0.1443575545189262</v>
       </c>
       <c r="H25">
-        <v>0.1287873857747002</v>
+        <v>0.2937245368297283</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.907479234837751</v>
+        <v>0.9994363999876441</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7283226686349735</v>
+        <v>0.7732741032007624</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_217/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_217/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.726598034398364</v>
+        <v>3.359070255019162</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0202251898184258</v>
+        <v>0.06125527617371773</v>
       </c>
       <c r="E2">
-        <v>1.323723653710346</v>
+        <v>2.913684133069182</v>
       </c>
       <c r="F2">
-        <v>0.2722498823717743</v>
+        <v>0.2807483843661842</v>
       </c>
       <c r="G2">
-        <v>0.1412063102096681</v>
+        <v>0.1937553183361302</v>
       </c>
       <c r="H2">
-        <v>0.2988846374982899</v>
+        <v>0.118358491544484</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8459651622079605</v>
+        <v>2.432691717762708</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7769765906976716</v>
+        <v>0.6121002980337096</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.592131924085265</v>
+        <v>2.931520216773549</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01764334772118303</v>
+        <v>0.05339598660368949</v>
       </c>
       <c r="E3">
-        <v>1.217921524984206</v>
+        <v>2.572011055341648</v>
       </c>
       <c r="F3">
-        <v>0.270144820187241</v>
+        <v>0.2467116455581646</v>
       </c>
       <c r="G3">
-        <v>0.1396760083086903</v>
+        <v>0.1663103309816023</v>
       </c>
       <c r="H3">
-        <v>0.3029791293159576</v>
+        <v>0.1127814476558626</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7414064603125325</v>
+        <v>2.113287422162642</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7819990035903857</v>
+        <v>0.5418137637156093</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.509456002926925</v>
+        <v>2.670512062249941</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01605168090171105</v>
+        <v>0.04856303721435751</v>
       </c>
       <c r="E4">
-        <v>1.153363124299545</v>
+        <v>2.36366792707102</v>
       </c>
       <c r="F4">
-        <v>0.2692320846979968</v>
+        <v>0.226941357166524</v>
       </c>
       <c r="G4">
-        <v>0.139029638160892</v>
+        <v>0.150530467479939</v>
       </c>
       <c r="H4">
-        <v>0.3057860215178323</v>
+        <v>0.1100113202138004</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6769404639647689</v>
+        <v>1.91794683359052</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.786307230825912</v>
+        <v>0.5022884710394209</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.47573751472811</v>
+        <v>2.564450589800458</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01540151803177991</v>
+        <v>0.04659137823526294</v>
       </c>
       <c r="E5">
-        <v>1.127160117646127</v>
+        <v>2.27908631885515</v>
       </c>
       <c r="F5">
-        <v>0.2689550014387336</v>
+        <v>0.2191442719064867</v>
       </c>
       <c r="G5">
-        <v>0.1388392021241813</v>
+        <v>0.1443444983428321</v>
       </c>
       <c r="H5">
-        <v>0.3070032221731722</v>
+        <v>0.1090356871465872</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6506042941818464</v>
+        <v>1.838487118396728</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7883685505049982</v>
+        <v>0.4870180155485002</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.470136965125334</v>
+        <v>2.546855206785722</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01529346755139471</v>
+        <v>0.04626384379850634</v>
       </c>
       <c r="E6">
-        <v>1.12281557416361</v>
+        <v>2.265059741008741</v>
       </c>
       <c r="F6">
-        <v>0.2689147028416272</v>
+        <v>0.2178645590192758</v>
       </c>
       <c r="G6">
-        <v>0.1388119645618389</v>
+        <v>0.143331384181316</v>
       </c>
       <c r="H6">
-        <v>0.3072097607365833</v>
+        <v>0.1088826200967148</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6462272605396606</v>
+        <v>1.825300112625172</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7887292284226248</v>
+        <v>0.4845307293833514</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.509001372989871</v>
+        <v>2.669080558185783</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01604291874945574</v>
+        <v>0.04853645604747214</v>
       </c>
       <c r="E7">
-        <v>1.153009311487295</v>
+        <v>2.362525988948349</v>
       </c>
       <c r="F7">
-        <v>0.2692279646014129</v>
+        <v>0.2268351834681113</v>
       </c>
       <c r="G7">
-        <v>0.1390267754679897</v>
+        <v>0.1504460835198316</v>
       </c>
       <c r="H7">
-        <v>0.3058021404057527</v>
+        <v>0.1099975565648776</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6765855496630024</v>
+        <v>1.916874697555869</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7863337957557235</v>
+        <v>0.5020792397351528</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.680258198473325</v>
+        <v>3.211288687258445</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01933633800719292</v>
+        <v>0.05854668248628769</v>
       </c>
       <c r="E8">
-        <v>1.287161058469138</v>
+        <v>2.795547474814924</v>
       </c>
       <c r="F8">
-        <v>0.2714448508545217</v>
+        <v>0.2687632604826504</v>
       </c>
       <c r="G8">
-        <v>0.1406173353320668</v>
+        <v>0.1840544073337327</v>
       </c>
       <c r="H8">
-        <v>0.3002354725605656</v>
+        <v>0.116292746777809</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8099693508221435</v>
+        <v>2.322367662589272</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7784528548934304</v>
+        <v>0.5870643813843799</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.01516667354332</v>
+        <v>4.290437436872196</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02574138222941258</v>
+        <v>0.07813788743666805</v>
       </c>
       <c r="E9">
-        <v>1.553313630393262</v>
+        <v>3.658425804287788</v>
       </c>
       <c r="F9">
-        <v>0.2788346860656574</v>
+        <v>0.3611090719173475</v>
       </c>
       <c r="G9">
-        <v>0.1460981166286714</v>
+        <v>0.2596680212449129</v>
       </c>
       <c r="H9">
-        <v>0.2916551389581628</v>
+        <v>0.1343728846558818</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.069379513823549</v>
+        <v>3.126296844663841</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7728137080831772</v>
+        <v>0.7862278329507149</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.260652077066879</v>
+        <v>5.09902090456626</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.030411759826805</v>
+        <v>0.09253965079943072</v>
       </c>
       <c r="E10">
-        <v>1.750588907990704</v>
+        <v>4.304346706607845</v>
       </c>
       <c r="F10">
-        <v>0.2861598270207537</v>
+        <v>0.4368843434678951</v>
       </c>
       <c r="G10">
-        <v>0.1516131263038289</v>
+        <v>0.3229498548506911</v>
       </c>
       <c r="H10">
-        <v>0.2867919412197324</v>
+        <v>0.1519693027297251</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.258623019224615</v>
+        <v>3.726360837712946</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7747926956490687</v>
+        <v>0.9579200372373862</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.372206965000771</v>
+        <v>5.471800534991644</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0325281777344486</v>
+        <v>0.09910138682771219</v>
       </c>
       <c r="E11">
-        <v>1.840683230460826</v>
+        <v>4.601715683161103</v>
       </c>
       <c r="F11">
-        <v>0.2899126815779027</v>
+        <v>0.473506052905357</v>
       </c>
       <c r="G11">
-        <v>0.1544555883509418</v>
+        <v>0.3538589000331456</v>
       </c>
       <c r="H11">
-        <v>0.2848959747797153</v>
+        <v>0.1611103821382187</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.34441850880421</v>
+        <v>4.002420609910644</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7770519127064972</v>
+        <v>1.042891227298639</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.414432624694882</v>
+        <v>5.613815018936748</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03332838044360642</v>
+        <v>0.1015883781894615</v>
       </c>
       <c r="E12">
-        <v>1.874847721823613</v>
+        <v>4.714916663264233</v>
       </c>
       <c r="F12">
-        <v>0.2913949588415861</v>
+        <v>0.4877223141981659</v>
       </c>
       <c r="G12">
-        <v>0.1555807584664421</v>
+        <v>0.365909173719615</v>
       </c>
       <c r="H12">
-        <v>0.2842238000705777</v>
+        <v>0.1647536629473905</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.376864304998662</v>
+        <v>4.10749703455042</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7781052005724973</v>
+        <v>1.076179968449338</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.405339375601386</v>
+        <v>5.583189442549326</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03315609860072755</v>
+        <v>0.1010526496160651</v>
       </c>
       <c r="E13">
-        <v>1.867487711478162</v>
+        <v>4.690508932417941</v>
       </c>
       <c r="F13">
-        <v>0.2910729935108023</v>
+        <v>0.4846444315416747</v>
       </c>
       <c r="G13">
-        <v>0.155336250044499</v>
+        <v>0.3632978703584513</v>
       </c>
       <c r="H13">
-        <v>0.2843665237962796</v>
+        <v>0.1639606233026427</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.369878455006756</v>
+        <v>4.084841375910855</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7778695228732886</v>
+        <v>1.06895907980774</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.37568125582078</v>
+        <v>5.483466249657624</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03259403609168032</v>
+        <v>0.09930594447398278</v>
       </c>
       <c r="E14">
-        <v>1.843493024078839</v>
+        <v>4.611016371262252</v>
       </c>
       <c r="F14">
-        <v>0.2900334000089728</v>
+        <v>0.4746684139659862</v>
       </c>
       <c r="G14">
-        <v>0.1545471742813049</v>
+        <v>0.3548431092881543</v>
       </c>
       <c r="H14">
-        <v>0.2848397552200908</v>
+        <v>0.1614063632904816</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.347088713469645</v>
+        <v>4.011053938056762</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7771345902530982</v>
+        <v>1.045606871802192</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.357512465206696</v>
+        <v>5.422498105452462</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03224959332129629</v>
+        <v>0.09823634714778962</v>
       </c>
       <c r="E15">
-        <v>1.828801713117457</v>
+        <v>4.562404913170752</v>
       </c>
       <c r="F15">
-        <v>0.2894046026574415</v>
+        <v>0.468604409502646</v>
       </c>
       <c r="G15">
-        <v>0.1540702207183386</v>
+        <v>0.3497106114036939</v>
       </c>
       <c r="H15">
-        <v>0.2851355947621528</v>
+        <v>0.1598660482749068</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.333123696404698</v>
+        <v>3.965930123491944</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.7767102481628285</v>
+        <v>1.031451675572214</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.253359262129834</v>
+        <v>5.074770057820388</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03027327712379702</v>
+        <v>0.09211109306543364</v>
       </c>
       <c r="E16">
-        <v>1.744707872237456</v>
+        <v>4.284991172415943</v>
       </c>
       <c r="F16">
-        <v>0.2859230902228234</v>
+        <v>0.4345375767288715</v>
       </c>
       <c r="G16">
-        <v>0.1514341482392894</v>
+        <v>0.3209759566219503</v>
       </c>
       <c r="H16">
-        <v>0.2869222379959808</v>
+        <v>0.1513963084144621</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.253010107943624</v>
+        <v>3.708389668028246</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7746725978036295</v>
+        <v>0.9525155426192669</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.189433893614364</v>
+        <v>4.862812626989182</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02905873428153427</v>
+        <v>0.08835657426985932</v>
       </c>
       <c r="E17">
-        <v>1.693207216298845</v>
+        <v>4.115770201909555</v>
       </c>
       <c r="F17">
-        <v>0.2838955011577724</v>
+        <v>0.4142163626419304</v>
       </c>
       <c r="G17">
-        <v>0.149903039468299</v>
+        <v>0.3039193437275287</v>
       </c>
       <c r="H17">
-        <v>0.2880995179237118</v>
+        <v>0.1465039819052834</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.203787370835698</v>
+        <v>3.551251901204012</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.7737723070120808</v>
+        <v>0.9059347424060888</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.152654683756225</v>
+        <v>4.741357183076275</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0283593971258469</v>
+        <v>0.08619799576469944</v>
       </c>
       <c r="E18">
-        <v>1.663618782542244</v>
+        <v>4.018765963757915</v>
       </c>
       <c r="F18">
-        <v>0.2827688357016882</v>
+        <v>0.4027280776474882</v>
       </c>
       <c r="G18">
-        <v>0.1490537432091514</v>
+        <v>0.2943059084507098</v>
       </c>
       <c r="H18">
-        <v>0.2888064145461371</v>
+        <v>0.1437958137921527</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.175448297937635</v>
+        <v>3.46115479679429</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7733822557772498</v>
+        <v>0.879781010787184</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.140200007750707</v>
+        <v>4.700308921415569</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02812248433044573</v>
+        <v>0.08546727578065827</v>
       </c>
       <c r="E19">
-        <v>1.653606473825079</v>
+        <v>3.985975749642535</v>
       </c>
       <c r="F19">
-        <v>0.2823941384583577</v>
+        <v>0.3988715471642905</v>
       </c>
       <c r="G19">
-        <v>0.148771546885925</v>
+        <v>0.2910836361481444</v>
       </c>
       <c r="H19">
-        <v>0.2890508591402252</v>
+        <v>0.1428965086145553</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.165848492375744</v>
+        <v>3.43069559025588</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7732720642529216</v>
+        <v>0.8710318287561165</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.196240005925574</v>
+        <v>4.885327612718697</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02918810401342853</v>
+        <v>0.0887561488786659</v>
       </c>
       <c r="E20">
-        <v>1.698686116289196</v>
+        <v>4.133749613653208</v>
       </c>
       <c r="F20">
-        <v>0.2841072433226302</v>
+        <v>0.4163586255796261</v>
       </c>
       <c r="G20">
-        <v>0.150062777385088</v>
+        <v>0.3057143704182863</v>
       </c>
       <c r="H20">
-        <v>0.2879711126216478</v>
+        <v>0.147013704221763</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.209030064744184</v>
+        <v>3.56794939933377</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7738549034730795</v>
+        <v>0.9108264198542884</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.384393052712539</v>
+        <v>5.51273309401671</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03275916161288706</v>
+        <v>0.09981892809499016</v>
       </c>
       <c r="E21">
-        <v>1.850539573583688</v>
+        <v>4.634348418625223</v>
       </c>
       <c r="F21">
-        <v>0.2903370888384416</v>
+        <v>0.4775888270938466</v>
       </c>
       <c r="G21">
-        <v>0.1547776143205368</v>
+        <v>0.3573167534971446</v>
       </c>
       <c r="H21">
-        <v>0.2846995106648365</v>
+        <v>0.1621515239774851</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.353783790643661</v>
+        <v>4.032711675123892</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7773450716101706</v>
+        <v>1.05243475260616</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.507258115939976</v>
+        <v>5.927814097007513</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0350858037243853</v>
+        <v>0.1070623420933998</v>
       </c>
       <c r="E22">
-        <v>1.950061449549366</v>
+        <v>4.965026742649428</v>
       </c>
       <c r="F22">
-        <v>0.2947654056958413</v>
+        <v>0.5196579129716952</v>
       </c>
       <c r="G22">
-        <v>0.1581438010361182</v>
+        <v>0.3930784722384146</v>
       </c>
       <c r="H22">
-        <v>0.2828283471916109</v>
+        <v>0.1731141392649675</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.448137090570924</v>
+        <v>4.33965149163663</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7807799466666268</v>
+        <v>1.151531916371226</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.441692477908077</v>
+        <v>5.705766986099377</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03384471581816229</v>
+        <v>0.1031949214810766</v>
       </c>
       <c r="E23">
-        <v>1.896920385940149</v>
+        <v>4.78818568220322</v>
       </c>
       <c r="F23">
-        <v>0.2923690665662591</v>
+        <v>0.49700326362791</v>
       </c>
       <c r="G23">
-        <v>0.1563208801003952</v>
+        <v>0.3737910070841366</v>
       </c>
       <c r="H23">
-        <v>0.2838024916842983</v>
+        <v>0.1671588383119484</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.39780231510349</v>
+        <v>4.175505971699181</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7788403368479635</v>
+        <v>1.097998541063617</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.193163048640258</v>
+        <v>4.875147346768813</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02912961931808411</v>
+        <v>0.08857550142470672</v>
       </c>
       <c r="E24">
-        <v>1.696209043136577</v>
+        <v>4.125620245971277</v>
       </c>
       <c r="F24">
-        <v>0.2840113931879245</v>
+        <v>0.4153895051199612</v>
       </c>
       <c r="G24">
-        <v>0.1499904635016662</v>
+        <v>0.3049022418459941</v>
       </c>
       <c r="H24">
-        <v>0.2880290710348987</v>
+        <v>0.1467829346479022</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.206659968201393</v>
+        <v>3.560399709029355</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.773817164515151</v>
+        <v>0.9086129513015635</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.924665212247646</v>
+        <v>3.996209769759616</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02401466106498162</v>
+        <v>0.07283904861589008</v>
       </c>
       <c r="E25">
-        <v>1.480997856433788</v>
+        <v>3.423178521007799</v>
       </c>
       <c r="F25">
-        <v>0.276505561267669</v>
+        <v>0.3348701213743226</v>
       </c>
       <c r="G25">
-        <v>0.1443575545189262</v>
+        <v>0.237995124311098</v>
       </c>
       <c r="H25">
-        <v>0.2937245368297283</v>
+        <v>0.1287873857746931</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9994363999876441</v>
+        <v>2.907479234837695</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7732741032007624</v>
+        <v>0.7283226686349593</v>
       </c>
     </row>
   </sheetData>
